--- a/files/Sirio_Doku_Vorlage.xlsx
+++ b/files/Sirio_Doku_Vorlage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88334373-FCE1-47FF-83F8-ACA20782FC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238BE541-B59F-44D2-ABD5-BE5291529660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PSA</t>
-  </si>
-  <si>
-    <t>Signalisation</t>
   </si>
   <si>
     <t>Priorität</t>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Typ / Modul / IP</t>
+  </si>
+  <si>
+    <t>Beep Code</t>
   </si>
 </sst>
 </file>
@@ -136,11 +136,10 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Frutiger LT Std 47 Light Cn"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -721,18 +720,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -750,30 +737,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -782,14 +745,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -802,18 +757,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -822,20 +765,76 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1229,8 +1228,8 @@
   <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:C13"/>
+      <pane ySplit="8" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1249,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1302,7 +1301,7 @@
     </row>
     <row r="2" spans="1:49" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1312,7 +1311,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
@@ -1357,7 +1356,7 @@
     </row>
     <row r="3" spans="1:49" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1367,7 +1366,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="16"/>
@@ -1412,7 +1411,7 @@
     </row>
     <row r="4" spans="1:49" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1422,7 +1421,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="14"/>
@@ -1467,7 +1466,7 @@
     </row>
     <row r="5" spans="1:49" ht="21.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1518,9 +1517,9 @@
       <c r="AV5" s="25"/>
       <c r="AW5" s="26"/>
     </row>
-    <row r="6" spans="1:49" ht="31.5" customHeight="1">
+    <row r="6" spans="1:49" ht="62.25" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1573,1447 +1572,1447 @@
     </row>
     <row r="7" spans="1:49" ht="33.75" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>1</v>
+      <c r="G7" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="41"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="67"/>
     </row>
     <row r="8" spans="1:49" ht="84.75" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47" t="s">
-        <v>3</v>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44" t="s">
+        <v>2</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="51"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="70"/>
     </row>
     <row r="9" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
     </row>
     <row r="10" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
     </row>
     <row r="11" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
     </row>
     <row r="12" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
     </row>
     <row r="13" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
     </row>
     <row r="14" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
     </row>
     <row r="15" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
     </row>
     <row r="16" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
     </row>
     <row r="17" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
     </row>
     <row r="18" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
     </row>
     <row r="19" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
     </row>
     <row r="20" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
     </row>
     <row r="21" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
     </row>
     <row r="22" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
     </row>
     <row r="23" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
     </row>
     <row r="24" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
     </row>
     <row r="25" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="65"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="65"/>
-      <c r="AV25" s="65"/>
-      <c r="AW25" s="65"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
     </row>
     <row r="26" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="65"/>
-      <c r="AV26" s="65"/>
-      <c r="AW26" s="65"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
     </row>
     <row r="27" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="65"/>
-      <c r="AT27" s="65"/>
-      <c r="AU27" s="65"/>
-      <c r="AV27" s="65"/>
-      <c r="AW27" s="65"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
     </row>
     <row r="28" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="70"/>
-      <c r="AF28" s="70"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51"/>
     </row>
     <row r="29" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="65"/>
-      <c r="AM29" s="65"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="65"/>
-      <c r="AT29" s="65"/>
-      <c r="AU29" s="65"/>
-      <c r="AV29" s="65"/>
-      <c r="AW29" s="65"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="51"/>
     </row>
     <row r="30" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="65"/>
-      <c r="AT30" s="65"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="65"/>
-      <c r="AW30" s="65"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="51"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="51"/>
     </row>
     <row r="31" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="70"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="65"/>
-      <c r="AT31" s="65"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="65"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
     </row>
     <row r="32" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="65"/>
-      <c r="AT32" s="65"/>
-      <c r="AU32" s="65"/>
-      <c r="AV32" s="65"/>
-      <c r="AW32" s="65"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="51"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="51"/>
     </row>
     <row r="33" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="70"/>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="65"/>
-      <c r="AU33" s="65"/>
-      <c r="AV33" s="65"/>
-      <c r="AW33" s="65"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="51"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
     </row>
     <row r="34" spans="1:49" ht="14.45" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="70"/>
-      <c r="AF34" s="70"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="65"/>
-      <c r="AT34" s="65"/>
-      <c r="AU34" s="65"/>
-      <c r="AV34" s="65"/>
-      <c r="AW34" s="65"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
